--- a/biology/Botanique/Rhacophyton/Rhacophyton.xlsx
+++ b/biology/Botanique/Rhacophyton/Rhacophyton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhacophyton est un genre de plantes fossiles de l'ordre des Rhacophytales, connu au Dévonien supérieur, en Amérique du Nord, Europe et Sibérie. Sa position taxonomique est incertaine : on le considérait généralement comme un genre de fougères primitives. La présence d'une stèle présentant une anatomie en "Clepsydre" permet de plus de l'exclure des Progymnospermes.
 Les fossiles attribués à Rhacophyton sont des compressions d’axes ramifiés qui ressemblent à des frondes de fougères et qui portent des appendices terminaux dichotomes ou des sporanges.
@@ -513,7 +525,9 @@
           <t>Taxons classés dans le genre Rhacophyton</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Rhacophyton a été créé en 1875 par François Crépin. Il comprend actuellement plusieurs espèces dont :
 Rhacophyton condrusorum Crepin 1875 - Europe
